--- a/data/csv/coordenadas.xlsx
+++ b/data/csv/coordenadas.xlsx
@@ -9,14 +9,17 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="4760" yWindow="0" windowWidth="24040" windowHeight="17900" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="440" windowWidth="28800" windowHeight="17480" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_08_jul_temp_1" localSheetId="0">Sheet1!$K$21:$N$41</definedName>
-    <definedName name="coordenadas" localSheetId="0">Sheet1!$A$1:$L$77</definedName>
+    <definedName name="_25_jan_sal" localSheetId="1">Sheet3!$A$1:$D$18</definedName>
+    <definedName name="_27_may_sal" localSheetId="2">Sheet2!$A$1:$D$22</definedName>
+    <definedName name="coordenadas" localSheetId="0">Sheet1!$A$1:$S$77</definedName>
   </definedNames>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -29,8 +32,8 @@
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <connection id="1" name="08-jul-temp" type="6" refreshedVersion="0" background="1" saveData="1">
-    <textPr fileType="mac" codePage="10000" sourceFile="/Users/viniWS/Bio/TCC_Vini_Public/08-jul-temp.csv" decimal="," thousands="." comma="1">
+  <connection id="1" name="25-jan-sal" type="6" refreshedVersion="0" background="1" saveData="1">
+    <textPr fileType="mac" codePage="10000" sourceFile="/Users/viniWS/Bio/TCC_Vini_Public/25-jan-sal.csv" decimal="," thousands="." comma="1">
       <textFields count="4">
         <textField/>
         <textField type="text"/>
@@ -39,16 +42,33 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="2" name="coordenadas" type="6" refreshedVersion="0" background="1" saveData="1">
+  <connection id="2" name="27-may-sal" type="6" refreshedVersion="0" background="1" saveData="1">
+    <textPr fileType="mac" codePage="10000" sourceFile="/Users/viniWS/Bio/TCC_Vini_Public/27-may-sal.csv" decimal="," thousands="." comma="1">
+      <textFields count="4">
+        <textField/>
+        <textField type="text"/>
+        <textField type="text"/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="3" name="coordenadas" type="6" refreshedVersion="0" background="1" saveData="1">
     <textPr fileType="mac" codePage="10000" sourceFile="/Users/viniWS/Bio/TCC_Vini_Public/data/csv/coordenadas.csv" decimal="," thousands="." semicolon="1">
-      <textFields count="12">
+      <textFields count="19">
         <textField/>
         <textField type="text"/>
         <textField type="text"/>
         <textField/>
         <textField/>
+        <textField type="DMY"/>
+        <textField type="text"/>
+        <textField type="text"/>
+        <textField type="text"/>
         <textField/>
-        <textField type="text"/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
         <textField/>
         <textField/>
         <textField/>
@@ -61,7 +81,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="464" uniqueCount="264">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="673" uniqueCount="420">
   <si>
     <t>Ponto</t>
   </si>
@@ -84,6 +104,12 @@
     <t>CC</t>
   </si>
   <si>
+    <t>Surf Temp</t>
+  </si>
+  <si>
+    <t>Bot Temp</t>
+  </si>
+  <si>
     <t>st1</t>
   </si>
   <si>
@@ -96,6 +122,12 @@
     <t>2.77</t>
   </si>
   <si>
+    <t>22.2951</t>
+  </si>
+  <si>
+    <t>18.9381</t>
+  </si>
+  <si>
     <t>st2</t>
   </si>
   <si>
@@ -108,6 +140,12 @@
     <t>4.16</t>
   </si>
   <si>
+    <t>20.7373</t>
+  </si>
+  <si>
+    <t>19.0296</t>
+  </si>
+  <si>
     <t>st4</t>
   </si>
   <si>
@@ -120,6 +158,12 @@
     <t>8.31</t>
   </si>
   <si>
+    <t>19.3257</t>
+  </si>
+  <si>
+    <t>19.1444</t>
+  </si>
+  <si>
     <t>st5</t>
   </si>
   <si>
@@ -132,6 +176,12 @@
     <t>6.65</t>
   </si>
   <si>
+    <t>22.0471</t>
+  </si>
+  <si>
+    <t>19.225</t>
+  </si>
+  <si>
     <t>st6</t>
   </si>
   <si>
@@ -141,6 +191,12 @@
     <t>-48.786512</t>
   </si>
   <si>
+    <t>22.0035</t>
+  </si>
+  <si>
+    <t>19.5271</t>
+  </si>
+  <si>
     <t>st7</t>
   </si>
   <si>
@@ -153,6 +209,12 @@
     <t>6.93</t>
   </si>
   <si>
+    <t>21.4798</t>
+  </si>
+  <si>
+    <t>19.2974</t>
+  </si>
+  <si>
     <t>st9</t>
   </si>
   <si>
@@ -165,6 +227,12 @@
     <t>5.54</t>
   </si>
   <si>
+    <t>20.7052</t>
+  </si>
+  <si>
+    <t>20.6943</t>
+  </si>
+  <si>
     <t>st8</t>
   </si>
   <si>
@@ -174,6 +242,12 @@
     <t>-48.794307</t>
   </si>
   <si>
+    <t>21.6781</t>
+  </si>
+  <si>
+    <t>19.6958</t>
+  </si>
+  <si>
     <t>st10</t>
   </si>
   <si>
@@ -183,6 +257,12 @@
     <t>-48.804977</t>
   </si>
   <si>
+    <t>22.8854</t>
+  </si>
+  <si>
+    <t>21.4572</t>
+  </si>
+  <si>
     <t>st11</t>
   </si>
   <si>
@@ -192,6 +272,12 @@
     <t>-48.810978</t>
   </si>
   <si>
+    <t>22.381</t>
+  </si>
+  <si>
+    <t>22.4378</t>
+  </si>
+  <si>
     <t>st12</t>
   </si>
   <si>
@@ -201,6 +287,12 @@
     <t>-48.823625</t>
   </si>
   <si>
+    <t>22.1741</t>
+  </si>
+  <si>
+    <t>21.9495</t>
+  </si>
+  <si>
     <t>st13</t>
   </si>
   <si>
@@ -210,6 +302,12 @@
     <t>-48.83225</t>
   </si>
   <si>
+    <t>23.3963</t>
+  </si>
+  <si>
+    <t>22.2691</t>
+  </si>
+  <si>
     <t>st16</t>
   </si>
   <si>
@@ -222,6 +320,12 @@
     <t>1.39</t>
   </si>
   <si>
+    <t>23.1229</t>
+  </si>
+  <si>
+    <t>21.7973</t>
+  </si>
+  <si>
     <t>st15</t>
   </si>
   <si>
@@ -234,6 +338,12 @@
     <t>1.85</t>
   </si>
   <si>
+    <t>23.0797</t>
+  </si>
+  <si>
+    <t>22.6945</t>
+  </si>
+  <si>
     <t>st18</t>
   </si>
   <si>
@@ -243,6 +353,12 @@
     <t>-48.833888</t>
   </si>
   <si>
+    <t>23.1337</t>
+  </si>
+  <si>
+    <t>22.1972</t>
+  </si>
+  <si>
     <t>st19</t>
   </si>
   <si>
@@ -255,6 +371,12 @@
     <t>3.69</t>
   </si>
   <si>
+    <t>23.8402</t>
+  </si>
+  <si>
+    <t>22.2175</t>
+  </si>
+  <si>
     <t>st20</t>
   </si>
   <si>
@@ -264,6 +386,12 @@
     <t>-48.830182</t>
   </si>
   <si>
+    <t>24.4227</t>
+  </si>
+  <si>
+    <t>24.3767</t>
+  </si>
+  <si>
     <t>st17</t>
   </si>
   <si>
@@ -273,6 +401,12 @@
     <t>-48.840621</t>
   </si>
   <si>
+    <t>22.9202</t>
+  </si>
+  <si>
+    <t>22.9055</t>
+  </si>
+  <si>
     <t>st14</t>
   </si>
   <si>
@@ -285,18 +419,36 @@
     <t>8.62</t>
   </si>
   <si>
+    <t>22.5526</t>
+  </si>
+  <si>
+    <t>20.6024</t>
+  </si>
+  <si>
     <t>125.0</t>
   </si>
   <si>
     <t>2.22</t>
   </si>
   <si>
+    <t>19.7455</t>
+  </si>
+  <si>
+    <t>19.3237</t>
+  </si>
+  <si>
     <t>110.0</t>
   </si>
   <si>
     <t>1.11</t>
   </si>
   <si>
+    <t>19.5345</t>
+  </si>
+  <si>
+    <t>19.3598</t>
+  </si>
+  <si>
     <t>st3</t>
   </si>
   <si>
@@ -309,534 +461,402 @@
     <t>100.0</t>
   </si>
   <si>
+    <t>19.4677</t>
+  </si>
+  <si>
+    <t>19.3384</t>
+  </si>
+  <si>
+    <t>19.4454</t>
+  </si>
+  <si>
+    <t>19.3423</t>
+  </si>
+  <si>
     <t>8.60</t>
   </si>
   <si>
+    <t>19.8182</t>
+  </si>
+  <si>
+    <t>19.1643</t>
+  </si>
+  <si>
     <t>80.0</t>
   </si>
   <si>
+    <t>19.7749</t>
+  </si>
+  <si>
+    <t>18.9422</t>
+  </si>
+  <si>
     <t>70.0</t>
   </si>
   <si>
+    <t>20.0762</t>
+  </si>
+  <si>
+    <t>18.9306</t>
+  </si>
+  <si>
     <t>12.93</t>
   </si>
   <si>
+    <t>19.4879</t>
+  </si>
+  <si>
+    <t>19.4289</t>
+  </si>
+  <si>
     <t>40.0</t>
   </si>
   <si>
     <t>7.39</t>
   </si>
   <si>
+    <t>19.4619</t>
+  </si>
+  <si>
+    <t>19.5795</t>
+  </si>
+  <si>
+    <t>20.879</t>
+  </si>
+  <si>
+    <t>20.6976</t>
+  </si>
+  <si>
     <t>115.0</t>
   </si>
   <si>
+    <t>20.6948</t>
+  </si>
+  <si>
+    <t>20.0394</t>
+  </si>
+  <si>
     <t>120.0</t>
   </si>
   <si>
+    <t>20.1136</t>
+  </si>
+  <si>
+    <t>21.1836</t>
+  </si>
+  <si>
     <t>14.77</t>
   </si>
   <si>
+    <t>20.1169</t>
+  </si>
+  <si>
+    <t>20.3751</t>
+  </si>
+  <si>
+    <t>19.9841</t>
+  </si>
+  <si>
+    <t>19.7244</t>
+  </si>
+  <si>
     <t>60.0</t>
   </si>
   <si>
+    <t>21.3145</t>
+  </si>
+  <si>
+    <t>21.3495</t>
+  </si>
+  <si>
+    <t>19.9306</t>
+  </si>
+  <si>
+    <t>19.9528</t>
+  </si>
+  <si>
+    <t>20.0201</t>
+  </si>
+  <si>
+    <t>20.1659</t>
+  </si>
+  <si>
+    <t>20.0646</t>
+  </si>
+  <si>
+    <t>20.1106</t>
+  </si>
+  <si>
+    <t>19.38</t>
+  </si>
+  <si>
+    <t>20.0004</t>
+  </si>
+  <si>
     <t>9.23</t>
   </si>
   <si>
+    <t>19.457</t>
+  </si>
+  <si>
+    <t>19.9828</t>
+  </si>
+  <si>
+    <t>20.4018</t>
+  </si>
+  <si>
+    <t>20.3119</t>
+  </si>
+  <si>
+    <t>20.4084</t>
+  </si>
+  <si>
+    <t>20.3767</t>
+  </si>
+  <si>
+    <t>20.3609</t>
+  </si>
+  <si>
+    <t>20.4194</t>
+  </si>
+  <si>
+    <t>21.0526</t>
+  </si>
+  <si>
+    <t>20.4449</t>
+  </si>
+  <si>
+    <t>21.5373</t>
+  </si>
+  <si>
+    <t>20.5067</t>
+  </si>
+  <si>
+    <t>22.0242</t>
+  </si>
+  <si>
+    <t>20.6116</t>
+  </si>
+  <si>
+    <t>18.2024</t>
+  </si>
+  <si>
+    <t>20.6225</t>
+  </si>
+  <si>
+    <t>20.5458</t>
+  </si>
+  <si>
+    <t>20.5391</t>
+  </si>
+  <si>
+    <t>20.4565</t>
+  </si>
+  <si>
+    <t>20.5443</t>
+  </si>
+  <si>
+    <t>18.4431</t>
+  </si>
+  <si>
+    <t>20.6423</t>
+  </si>
+  <si>
+    <t>20.3261</t>
+  </si>
+  <si>
+    <t>20.6472</t>
+  </si>
+  <si>
+    <t>18.4657</t>
+  </si>
+  <si>
+    <t>20.5642</t>
+  </si>
+  <si>
+    <t>20.5596</t>
+  </si>
+  <si>
+    <t>20.5984</t>
+  </si>
+  <si>
+    <t>20.1908</t>
+  </si>
+  <si>
+    <t>20.4582</t>
+  </si>
+  <si>
+    <t>20.4109</t>
+  </si>
+  <si>
+    <t>20.5732</t>
+  </si>
+  <si>
+    <t>19.9226</t>
+  </si>
+  <si>
+    <t>21.0702</t>
+  </si>
+  <si>
+    <t>20.7029</t>
+  </si>
+  <si>
+    <t>20.99</t>
+  </si>
+  <si>
+    <t>18.7273</t>
+  </si>
+  <si>
+    <t>20.9692</t>
+  </si>
+  <si>
     <t>-</t>
   </si>
   <si>
+    <t>20.8621</t>
+  </si>
+  <si>
+    <t>20.7661</t>
+  </si>
+  <si>
+    <t>20.9501</t>
+  </si>
+  <si>
+    <t>21.0464</t>
+  </si>
+  <si>
     <t>2.5</t>
   </si>
   <si>
     <t>5.08</t>
   </si>
   <si>
+    <t>28.1006</t>
+  </si>
+  <si>
+    <t>26.0133</t>
+  </si>
+  <si>
+    <t>0.6</t>
+  </si>
+  <si>
+    <t>3.84</t>
+  </si>
+  <si>
+    <t>25.7623</t>
+  </si>
+  <si>
+    <t>25.7496</t>
+  </si>
+  <si>
     <t>0.5</t>
   </si>
   <si>
     <t>4.58</t>
   </si>
   <si>
-    <t>0.6</t>
-  </si>
-  <si>
-    <t>3.84</t>
+    <t>27.47</t>
+  </si>
+  <si>
+    <t>25.6753</t>
+  </si>
+  <si>
+    <t>27.6539</t>
+  </si>
+  <si>
+    <t>28.2162</t>
   </si>
   <si>
     <t>0.7</t>
   </si>
   <si>
+    <t>28.2842</t>
+  </si>
+  <si>
+    <t>26.0396</t>
+  </si>
+  <si>
     <t>0.62</t>
   </si>
   <si>
+    <t>28.0078</t>
+  </si>
+  <si>
+    <t>28.0353</t>
+  </si>
+  <si>
     <t>6.09</t>
   </si>
   <si>
+    <t>27.8777</t>
+  </si>
+  <si>
+    <t>28.2276</t>
+  </si>
+  <si>
+    <t>26.733</t>
+  </si>
+  <si>
+    <t>26.169</t>
+  </si>
+  <si>
     <t>9.07</t>
   </si>
   <si>
+    <t>26.9961</t>
+  </si>
+  <si>
+    <t>28.4004</t>
+  </si>
+  <si>
     <t>1.1</t>
   </si>
   <si>
+    <t>29.2442</t>
+  </si>
+  <si>
+    <t>29.4797</t>
+  </si>
+  <si>
     <t>0.8</t>
   </si>
   <si>
+    <t>29.2255</t>
+  </si>
+  <si>
+    <t>29.7773</t>
+  </si>
+  <si>
+    <t>1.2</t>
+  </si>
+  <si>
     <t>4.82</t>
   </si>
   <si>
-    <t>1.2</t>
+    <t>29.129</t>
+  </si>
+  <si>
+    <t>29.2222</t>
+  </si>
+  <si>
+    <t>29.3494</t>
+  </si>
+  <si>
+    <t>29.5106</t>
   </si>
   <si>
     <t>10.65</t>
   </si>
   <si>
+    <t>29.1186</t>
+  </si>
+  <si>
+    <t>29.5228</t>
+  </si>
+  <si>
     <t>27.70</t>
   </si>
   <si>
-    <t>Surf Temp</t>
-  </si>
-  <si>
-    <t>Bot Temp</t>
-  </si>
-  <si>
-    <t>20.4018</t>
-  </si>
-  <si>
-    <t>20.3119</t>
-  </si>
-  <si>
-    <t>20.4084</t>
-  </si>
-  <si>
-    <t>20.3767</t>
-  </si>
-  <si>
-    <t>20.3609</t>
-  </si>
-  <si>
-    <t>20.4194</t>
-  </si>
-  <si>
-    <t>22.0242</t>
-  </si>
-  <si>
-    <t>20.6116</t>
-  </si>
-  <si>
-    <t>21.5373</t>
-  </si>
-  <si>
-    <t>20.5067</t>
-  </si>
-  <si>
-    <t>21.0526</t>
-  </si>
-  <si>
-    <t>20.4449</t>
-  </si>
-  <si>
-    <t>18.2024</t>
-  </si>
-  <si>
-    <t>20.6225</t>
-  </si>
-  <si>
-    <t>20.5458</t>
-  </si>
-  <si>
-    <t>20.5391</t>
-  </si>
-  <si>
-    <t>20.4565</t>
-  </si>
-  <si>
-    <t>20.5443</t>
-  </si>
-  <si>
-    <t>18.4431</t>
-  </si>
-  <si>
-    <t>20.6423</t>
-  </si>
-  <si>
-    <t>20.3261</t>
-  </si>
-  <si>
-    <t>20.6472</t>
-  </si>
-  <si>
-    <t>18.4657</t>
-  </si>
-  <si>
-    <t>20.5642</t>
-  </si>
-  <si>
-    <t>20.5596</t>
-  </si>
-  <si>
-    <t>20.5984</t>
-  </si>
-  <si>
-    <t>20.1908</t>
-  </si>
-  <si>
-    <t>20.4582</t>
-  </si>
-  <si>
-    <t>20.4109</t>
-  </si>
-  <si>
-    <t>20.5732</t>
-  </si>
-  <si>
-    <t>19.9226</t>
-  </si>
-  <si>
-    <t>21.0702</t>
-  </si>
-  <si>
-    <t>20.7029</t>
-  </si>
-  <si>
-    <t>20.99</t>
-  </si>
-  <si>
-    <t>18.7273</t>
-  </si>
-  <si>
-    <t>20.9692</t>
-  </si>
-  <si>
-    <t>20.8621</t>
-  </si>
-  <si>
-    <t>20.7661</t>
-  </si>
-  <si>
-    <t>20.9501</t>
-  </si>
-  <si>
-    <t>21.0464</t>
-  </si>
-  <si>
-    <t>22.2951</t>
-  </si>
-  <si>
-    <t>18.9381</t>
-  </si>
-  <si>
-    <t>20.7373</t>
-  </si>
-  <si>
-    <t>19.0296</t>
-  </si>
-  <si>
-    <t>19.3257</t>
-  </si>
-  <si>
-    <t>19.1444</t>
-  </si>
-  <si>
-    <t>22.0471</t>
-  </si>
-  <si>
-    <t>19.225</t>
-  </si>
-  <si>
-    <t>22.0035</t>
-  </si>
-  <si>
-    <t>19.5271</t>
-  </si>
-  <si>
-    <t>21.4798</t>
-  </si>
-  <si>
-    <t>19.2974</t>
-  </si>
-  <si>
-    <t>20.7052</t>
-  </si>
-  <si>
-    <t>20.6943</t>
-  </si>
-  <si>
-    <t>21.6781</t>
-  </si>
-  <si>
-    <t>19.6958</t>
-  </si>
-  <si>
-    <t>22.8854</t>
-  </si>
-  <si>
-    <t>21.4572</t>
-  </si>
-  <si>
-    <t>22.381</t>
-  </si>
-  <si>
-    <t>22.4378</t>
-  </si>
-  <si>
-    <t>22.1741</t>
-  </si>
-  <si>
-    <t>21.9495</t>
-  </si>
-  <si>
-    <t>23.3963</t>
-  </si>
-  <si>
-    <t>22.2691</t>
-  </si>
-  <si>
-    <t>23.1229</t>
-  </si>
-  <si>
-    <t>21.7973</t>
-  </si>
-  <si>
-    <t>23.0797</t>
-  </si>
-  <si>
-    <t>22.6945</t>
-  </si>
-  <si>
-    <t>23.1337</t>
-  </si>
-  <si>
-    <t>22.1972</t>
-  </si>
-  <si>
-    <t>23.8402</t>
-  </si>
-  <si>
-    <t>22.2175</t>
-  </si>
-  <si>
-    <t>24.4227</t>
-  </si>
-  <si>
-    <t>24.3767</t>
-  </si>
-  <si>
-    <t>22.9202</t>
-  </si>
-  <si>
-    <t>22.9055</t>
-  </si>
-  <si>
-    <t>22.5526</t>
-  </si>
-  <si>
-    <t>20.6024</t>
-  </si>
-  <si>
-    <t>19.7455</t>
-  </si>
-  <si>
-    <t>19.3237</t>
-  </si>
-  <si>
-    <t>19.5345</t>
-  </si>
-  <si>
-    <t>19.3598</t>
-  </si>
-  <si>
-    <t>19.4677</t>
-  </si>
-  <si>
-    <t>19.3384</t>
-  </si>
-  <si>
-    <t>19.4454</t>
-  </si>
-  <si>
-    <t>19.3423</t>
-  </si>
-  <si>
-    <t>19.8182</t>
-  </si>
-  <si>
-    <t>19.1643</t>
-  </si>
-  <si>
-    <t>19.7749</t>
-  </si>
-  <si>
-    <t>18.9422</t>
-  </si>
-  <si>
-    <t>20.0762</t>
-  </si>
-  <si>
-    <t>18.9306</t>
-  </si>
-  <si>
-    <t>19.4879</t>
-  </si>
-  <si>
-    <t>19.4289</t>
-  </si>
-  <si>
-    <t>19.4619</t>
-  </si>
-  <si>
-    <t>19.5795</t>
-  </si>
-  <si>
-    <t>20.879</t>
-  </si>
-  <si>
-    <t>20.6976</t>
-  </si>
-  <si>
-    <t>20.6948</t>
-  </si>
-  <si>
-    <t>20.0394</t>
-  </si>
-  <si>
-    <t>20.1136</t>
-  </si>
-  <si>
-    <t>21.1836</t>
-  </si>
-  <si>
-    <t>20.1169</t>
-  </si>
-  <si>
-    <t>20.3751</t>
-  </si>
-  <si>
-    <t>19.9841</t>
-  </si>
-  <si>
-    <t>19.7244</t>
-  </si>
-  <si>
-    <t>21.3145</t>
-  </si>
-  <si>
-    <t>21.3495</t>
-  </si>
-  <si>
-    <t>19.9306</t>
-  </si>
-  <si>
-    <t>19.9528</t>
-  </si>
-  <si>
-    <t>20.0201</t>
-  </si>
-  <si>
-    <t>20.1659</t>
-  </si>
-  <si>
-    <t>20.0646</t>
-  </si>
-  <si>
-    <t>20.1106</t>
-  </si>
-  <si>
-    <t>19.38</t>
-  </si>
-  <si>
-    <t>20.0004</t>
-  </si>
-  <si>
-    <t>19.457</t>
-  </si>
-  <si>
-    <t>19.9828</t>
-  </si>
-  <si>
-    <t>28.1006</t>
-  </si>
-  <si>
-    <t>26.0133</t>
-  </si>
-  <si>
-    <t>27.6539</t>
-  </si>
-  <si>
-    <t>28.2162</t>
-  </si>
-  <si>
-    <t>27.47</t>
-  </si>
-  <si>
-    <t>25.6753</t>
-  </si>
-  <si>
-    <t>25.7623</t>
-  </si>
-  <si>
-    <t>25.7496</t>
-  </si>
-  <si>
-    <t>28.2842</t>
-  </si>
-  <si>
-    <t>26.0396</t>
-  </si>
-  <si>
-    <t>28.0078</t>
-  </si>
-  <si>
-    <t>28.0353</t>
-  </si>
-  <si>
-    <t>27.8777</t>
-  </si>
-  <si>
-    <t>28.2276</t>
-  </si>
-  <si>
-    <t>26.733</t>
-  </si>
-  <si>
-    <t>26.169</t>
-  </si>
-  <si>
-    <t>26.9961</t>
-  </si>
-  <si>
-    <t>28.4004</t>
-  </si>
-  <si>
-    <t>29.2442</t>
-  </si>
-  <si>
-    <t>29.4797</t>
-  </si>
-  <si>
-    <t>29.2255</t>
-  </si>
-  <si>
-    <t>29.7773</t>
-  </si>
-  <si>
-    <t>29.129</t>
-  </si>
-  <si>
-    <t>29.2222</t>
-  </si>
-  <si>
-    <t>29.3494</t>
-  </si>
-  <si>
-    <t>29.5106</t>
-  </si>
-  <si>
-    <t>29.1186</t>
-  </si>
-  <si>
-    <t>29.5228</t>
-  </si>
-  <si>
     <t>28.6706</t>
   </si>
   <si>
@@ -853,6 +873,474 @@
   </si>
   <si>
     <t>29.2861</t>
+  </si>
+  <si>
+    <t>0.92</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>5.3497</t>
+  </si>
+  <si>
+    <t>35.0655</t>
+  </si>
+  <si>
+    <t>35.0191</t>
+  </si>
+  <si>
+    <t>35.1256</t>
+  </si>
+  <si>
+    <t>34.9765</t>
+  </si>
+  <si>
+    <t>2.6197</t>
+  </si>
+  <si>
+    <t>31.5225</t>
+  </si>
+  <si>
+    <t>2.9203</t>
+  </si>
+  <si>
+    <t>33.7108</t>
+  </si>
+  <si>
+    <t>9.5395</t>
+  </si>
+  <si>
+    <t>34.9407</t>
+  </si>
+  <si>
+    <t>28.0976</t>
+  </si>
+  <si>
+    <t>28.6885</t>
+  </si>
+  <si>
+    <t>1.9685</t>
+  </si>
+  <si>
+    <t>32.944</t>
+  </si>
+  <si>
+    <t>19.956</t>
+  </si>
+  <si>
+    <t>25.0623</t>
+  </si>
+  <si>
+    <t>25.5689</t>
+  </si>
+  <si>
+    <t>26.284</t>
+  </si>
+  <si>
+    <t>27.4704</t>
+  </si>
+  <si>
+    <t>27.3769</t>
+  </si>
+  <si>
+    <t>17.0851</t>
+  </si>
+  <si>
+    <t>27.4336</t>
+  </si>
+  <si>
+    <t>26.9974</t>
+  </si>
+  <si>
+    <t>27.5751</t>
+  </si>
+  <si>
+    <t>8.7478</t>
+  </si>
+  <si>
+    <t>26.2641</t>
+  </si>
+  <si>
+    <t>3.2055</t>
+  </si>
+  <si>
+    <t>27.2399</t>
+  </si>
+  <si>
+    <t>9.6932</t>
+  </si>
+  <si>
+    <t>27.1084</t>
+  </si>
+  <si>
+    <t>9.3087</t>
+  </si>
+  <si>
+    <t>25.2176</t>
+  </si>
+  <si>
+    <t>27.1034</t>
+  </si>
+  <si>
+    <t>27.074</t>
+  </si>
+  <si>
+    <t>18.3614</t>
+  </si>
+  <si>
+    <t>32.5611</t>
+  </si>
+  <si>
+    <t>Bot Sal</t>
+  </si>
+  <si>
+    <t>Surf Sal</t>
+  </si>
+  <si>
+    <t>21.7097</t>
+  </si>
+  <si>
+    <t>33.1994</t>
+  </si>
+  <si>
+    <t>33.3422</t>
+  </si>
+  <si>
+    <t>33.1671</t>
+  </si>
+  <si>
+    <t>33.1258</t>
+  </si>
+  <si>
+    <t>33.1854</t>
+  </si>
+  <si>
+    <t>20.2782</t>
+  </si>
+  <si>
+    <t>33.1453</t>
+  </si>
+  <si>
+    <t>14.0809</t>
+  </si>
+  <si>
+    <t>31.0602</t>
+  </si>
+  <si>
+    <t>5.7041</t>
+  </si>
+  <si>
+    <t>31.0049</t>
+  </si>
+  <si>
+    <t>4.617</t>
+  </si>
+  <si>
+    <t>27.1583</t>
+  </si>
+  <si>
+    <t>32.3851</t>
+  </si>
+  <si>
+    <t>32.9866</t>
+  </si>
+  <si>
+    <t>17.2474</t>
+  </si>
+  <si>
+    <t>28.2259</t>
+  </si>
+  <si>
+    <t>0.9849</t>
+  </si>
+  <si>
+    <t>29.4319</t>
+  </si>
+  <si>
+    <t>9.6426</t>
+  </si>
+  <si>
+    <t>25.5218</t>
+  </si>
+  <si>
+    <t>0.9718</t>
+  </si>
+  <si>
+    <t>24.9486</t>
+  </si>
+  <si>
+    <t>12.5766</t>
+  </si>
+  <si>
+    <t>18.8329</t>
+  </si>
+  <si>
+    <t>8.7003</t>
+  </si>
+  <si>
+    <t>26.3995</t>
+  </si>
+  <si>
+    <t>14.6726</t>
+  </si>
+  <si>
+    <t>14.6012</t>
+  </si>
+  <si>
+    <t>14.1223</t>
+  </si>
+  <si>
+    <t>22.6325</t>
+  </si>
+  <si>
+    <t>9.1558</t>
+  </si>
+  <si>
+    <t>19.2487</t>
+  </si>
+  <si>
+    <t>16.284</t>
+  </si>
+  <si>
+    <t>18.5623</t>
+  </si>
+  <si>
+    <t>0.6333</t>
+  </si>
+  <si>
+    <t>16.3334</t>
+  </si>
+  <si>
+    <t>8.0014</t>
+  </si>
+  <si>
+    <t>13.0602</t>
+  </si>
+  <si>
+    <t>30.2789</t>
+  </si>
+  <si>
+    <t>35.4365</t>
+  </si>
+  <si>
+    <t>35.3616</t>
+  </si>
+  <si>
+    <t>35.549</t>
+  </si>
+  <si>
+    <t>35.4453</t>
+  </si>
+  <si>
+    <t>35.5646</t>
+  </si>
+  <si>
+    <t>4.3588</t>
+  </si>
+  <si>
+    <t>29.5833</t>
+  </si>
+  <si>
+    <t>3.2731</t>
+  </si>
+  <si>
+    <t>32.5871</t>
+  </si>
+  <si>
+    <t>4.4878</t>
+  </si>
+  <si>
+    <t>35.6513</t>
+  </si>
+  <si>
+    <t>8.7616</t>
+  </si>
+  <si>
+    <t>29.6032</t>
+  </si>
+  <si>
+    <t>29.772</t>
+  </si>
+  <si>
+    <t>30.122</t>
+  </si>
+  <si>
+    <t>28.0308</t>
+  </si>
+  <si>
+    <t>28.4868</t>
+  </si>
+  <si>
+    <t>16.4306</t>
+  </si>
+  <si>
+    <t>26.0501</t>
+  </si>
+  <si>
+    <t>21.7178</t>
+  </si>
+  <si>
+    <t>27.3058</t>
+  </si>
+  <si>
+    <t>11.0811</t>
+  </si>
+  <si>
+    <t>27.11</t>
+  </si>
+  <si>
+    <t>24.9675</t>
+  </si>
+  <si>
+    <t>25.8781</t>
+  </si>
+  <si>
+    <t>17.274</t>
+  </si>
+  <si>
+    <t>24.1061</t>
+  </si>
+  <si>
+    <t>25.3062</t>
+  </si>
+  <si>
+    <t>25.6354</t>
+  </si>
+  <si>
+    <t>22.9651</t>
+  </si>
+  <si>
+    <t>27.6439</t>
+  </si>
+  <si>
+    <t>24.1904</t>
+  </si>
+  <si>
+    <t>27.5754</t>
+  </si>
+  <si>
+    <t>3.3603</t>
+  </si>
+  <si>
+    <t>21.8937</t>
+  </si>
+  <si>
+    <t>18.6591</t>
+  </si>
+  <si>
+    <t>23.6014</t>
+  </si>
+  <si>
+    <t>17.7801</t>
+  </si>
+  <si>
+    <t>20.0715</t>
+  </si>
+  <si>
+    <t>17.706</t>
+  </si>
+  <si>
+    <t>34.7061</t>
+  </si>
+  <si>
+    <t>2.1425</t>
+  </si>
+  <si>
+    <t>16.9112</t>
+  </si>
+  <si>
+    <t>2.7848</t>
+  </si>
+  <si>
+    <t>33.9152</t>
+  </si>
+  <si>
+    <t>2.2816</t>
+  </si>
+  <si>
+    <t>33.0565</t>
+  </si>
+  <si>
+    <t>8.4546</t>
+  </si>
+  <si>
+    <t>31.033</t>
+  </si>
+  <si>
+    <t>2.2571</t>
+  </si>
+  <si>
+    <t>8.303</t>
+  </si>
+  <si>
+    <t>10.1778</t>
+  </si>
+  <si>
+    <t>9.5939</t>
+  </si>
+  <si>
+    <t>8.5742</t>
+  </si>
+  <si>
+    <t>30.9573</t>
+  </si>
+  <si>
+    <t>11.395</t>
+  </si>
+  <si>
+    <t>17.3093</t>
+  </si>
+  <si>
+    <t>15.1226</t>
+  </si>
+  <si>
+    <t>15.5632</t>
+  </si>
+  <si>
+    <t>15.8019</t>
+  </si>
+  <si>
+    <t>16.2899</t>
+  </si>
+  <si>
+    <t>16.3362</t>
+  </si>
+  <si>
+    <t>16.4893</t>
+  </si>
+  <si>
+    <t>15.8921</t>
+  </si>
+  <si>
+    <t>16.1568</t>
+  </si>
+  <si>
+    <t>15.2466</t>
+  </si>
+  <si>
+    <t>15.9433</t>
+  </si>
+  <si>
+    <t>14.4854</t>
+  </si>
+  <si>
+    <t>15.5259</t>
+  </si>
+  <si>
+    <t>5.6456</t>
+  </si>
+  <si>
+    <t>15.5572</t>
+  </si>
+  <si>
+    <t>11.4908</t>
+  </si>
+  <si>
+    <t>15.4014</t>
   </si>
 </sst>
 </file>
@@ -909,11 +1397,15 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="08-jul-temp_1" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="coordenadas" connectionId="3" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="coordenadas" connectionId="2" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="25-jan-sal" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="27-may-sal" connectionId="2" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1179,10 +1671,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P77"/>
+  <dimension ref="A1:K77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A48" workbookViewId="0">
-      <selection activeCell="J77" sqref="J61:J77"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L77" sqref="L19:L77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1193,10 +1685,11 @@
     <col min="5" max="5" width="10.33203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="5.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="10" width="12.33203125" customWidth="1"/>
+    <col min="8" max="8" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1218,22 +1711,28 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
-        <v>110</v>
-      </c>
-      <c r="I1" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D2" s="2">
         <v>0.58611111111111114</v>
@@ -1245,28 +1744,30 @@
         <v>43009</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>152</v>
+        <v>13</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-      <c r="O2" s="1"/>
-      <c r="P2" s="1"/>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D3" s="2">
         <v>0.59097222222222223</v>
@@ -1278,28 +1779,30 @@
         <v>43009</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>154</v>
+        <v>19</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-      <c r="O3" s="1"/>
-      <c r="P3" s="1"/>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="D4" s="2">
         <v>0.6069444444444444</v>
@@ -1311,28 +1814,30 @@
         <v>43009</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>156</v>
+        <v>25</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-      <c r="O4" s="1"/>
-      <c r="P4" s="1"/>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+        <v>26</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="D5" s="2">
         <v>0.61319444444444449</v>
@@ -1344,28 +1849,30 @@
         <v>43009</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>158</v>
+        <v>31</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="K5" s="1"/>
-      <c r="L5" s="1"/>
-      <c r="O5" s="1"/>
-      <c r="P5" s="1"/>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+        <v>32</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="D6" s="2">
         <v>0.61805555555555558</v>
@@ -1377,25 +1884,27 @@
         <v>43009</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>160</v>
+        <v>36</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="K6" s="1"/>
-      <c r="L6" s="1"/>
-      <c r="O6" s="1"/>
-      <c r="P6" s="1"/>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+        <v>37</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="D7" s="2">
         <v>0.62361111111111112</v>
@@ -1407,28 +1916,30 @@
         <v>43009</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>162</v>
+        <v>42</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
-      <c r="O7" s="1"/>
-      <c r="P7" s="1"/>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+        <v>43</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="D8" s="2">
         <v>0.63055555555555554</v>
@@ -1440,28 +1951,30 @@
         <v>43009</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>164</v>
+        <v>48</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="K8" s="1"/>
-      <c r="L8" s="1"/>
-      <c r="O8" s="1"/>
-      <c r="P8" s="1"/>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+        <v>49</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="D9" s="2">
         <v>0.63958333333333328</v>
@@ -1473,25 +1986,27 @@
         <v>43009</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>166</v>
+        <v>53</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="K9" s="1"/>
-      <c r="L9" s="1"/>
-      <c r="O9" s="1"/>
-      <c r="P9" s="1"/>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+        <v>54</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>37</v>
+        <v>55</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>39</v>
+        <v>57</v>
       </c>
       <c r="D10" s="2">
         <v>0.6479166666666667</v>
@@ -1503,25 +2018,27 @@
         <v>43009</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>168</v>
+        <v>58</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="K10" s="1"/>
-      <c r="L10" s="1"/>
-      <c r="O10" s="1"/>
-      <c r="P10" s="1"/>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+        <v>59</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>41</v>
+        <v>61</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>42</v>
+        <v>62</v>
       </c>
       <c r="D11" s="2">
         <v>0.65902777777777777</v>
@@ -1533,25 +2050,27 @@
         <v>43009</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>170</v>
+        <v>63</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="K11" s="1"/>
-      <c r="L11" s="1"/>
-      <c r="O11" s="1"/>
-      <c r="P11" s="1"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+        <v>64</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>43</v>
+        <v>65</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>44</v>
+        <v>66</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>45</v>
+        <v>67</v>
       </c>
       <c r="D12" s="2">
         <v>0.66736111111111107</v>
@@ -1563,28 +2082,30 @@
         <v>43009</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>172</v>
+        <v>68</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="K12" s="1"/>
-      <c r="L12" s="1"/>
-      <c r="O12" s="1"/>
-      <c r="P12" s="1"/>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+        <v>69</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>46</v>
+        <v>70</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>47</v>
+        <v>71</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>48</v>
+        <v>72</v>
       </c>
       <c r="D13" s="2">
         <v>0.6777777777777777</v>
@@ -1596,25 +2117,27 @@
         <v>43009</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>174</v>
+        <v>73</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="K13" s="1"/>
-      <c r="L13" s="1"/>
-      <c r="O13" s="1"/>
-      <c r="P13" s="1"/>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+        <v>74</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>49</v>
+        <v>75</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>50</v>
+        <v>76</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>51</v>
+        <v>77</v>
       </c>
       <c r="D14" s="2">
         <v>0.68402777777777779</v>
@@ -1626,28 +2149,30 @@
         <v>43009</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>52</v>
+        <v>78</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>176</v>
+        <v>79</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="K14" s="1"/>
-      <c r="L14" s="1"/>
-      <c r="O14" s="1"/>
-      <c r="P14" s="1"/>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+        <v>80</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>53</v>
+        <v>81</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>54</v>
+        <v>82</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>55</v>
+        <v>83</v>
       </c>
       <c r="D15" s="2">
         <v>0.69027777777777777</v>
@@ -1659,28 +2184,30 @@
         <v>43009</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>56</v>
+        <v>84</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>178</v>
+        <v>85</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="K15" s="1"/>
-      <c r="L15" s="1"/>
-      <c r="O15" s="1"/>
-      <c r="P15" s="1"/>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+        <v>86</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>57</v>
+        <v>87</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>58</v>
+        <v>88</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>59</v>
+        <v>89</v>
       </c>
       <c r="D16" s="2">
         <v>0.69791666666666663</v>
@@ -1692,25 +2219,27 @@
         <v>43009</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>180</v>
+        <v>90</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="K16" s="1"/>
-      <c r="L16" s="1"/>
-      <c r="O16" s="1"/>
-      <c r="P16" s="1"/>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
+        <v>91</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>60</v>
+        <v>92</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>61</v>
+        <v>93</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>62</v>
+        <v>94</v>
       </c>
       <c r="D17" s="2">
         <v>0.70277777777777783</v>
@@ -1722,28 +2251,30 @@
         <v>43009</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>63</v>
+        <v>95</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>182</v>
+        <v>96</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="K17" s="1"/>
-      <c r="L17" s="1"/>
-      <c r="O17" s="1"/>
-      <c r="P17" s="1"/>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
+        <v>97</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>64</v>
+        <v>98</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>65</v>
+        <v>99</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>66</v>
+        <v>100</v>
       </c>
       <c r="D18" s="2">
         <v>0.7104166666666667</v>
@@ -1755,28 +2286,30 @@
         <v>43009</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>184</v>
+        <v>101</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="K18" s="1"/>
-      <c r="L18" s="1"/>
-      <c r="O18" s="1"/>
-      <c r="P18" s="1"/>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
+        <v>102</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>67</v>
+        <v>103</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>68</v>
+        <v>104</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>69</v>
+        <v>105</v>
       </c>
       <c r="D19" s="2">
         <v>0.72152777777777777</v>
@@ -1788,25 +2321,27 @@
         <v>43009</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>186</v>
+        <v>106</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="K19" s="1"/>
-      <c r="L19" s="1"/>
-      <c r="O19" s="1"/>
-      <c r="P19" s="1"/>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
+        <v>107</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="K19" s="1" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>70</v>
+        <v>108</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>71</v>
+        <v>109</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>72</v>
+        <v>110</v>
       </c>
       <c r="D20" s="2">
         <v>0.73125000000000007</v>
@@ -1818,478 +2353,540 @@
         <v>43009</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>73</v>
+        <v>111</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>188</v>
+        <v>112</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="K20" s="1"/>
-      <c r="L20" s="1"/>
-      <c r="O20" s="1"/>
-      <c r="P20" s="1"/>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
+        <v>113</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="K20" s="1" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D21" s="2">
         <v>0.61388888888888882</v>
       </c>
       <c r="E21" t="s">
-        <v>74</v>
+        <v>114</v>
       </c>
       <c r="F21" s="3">
         <v>42924</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>75</v>
+        <v>115</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>190</v>
+        <v>116</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="L21" s="1"/>
-      <c r="M21" s="1"/>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
+        <v>117</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="K21" s="1" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D22" s="2">
         <v>0.62013888888888891</v>
       </c>
       <c r="E22" t="s">
-        <v>76</v>
+        <v>118</v>
       </c>
       <c r="F22" s="3">
         <v>42924</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>77</v>
+        <v>119</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>192</v>
+        <v>120</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="L22" s="1"/>
-      <c r="M22" s="1"/>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
+        <v>121</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="K22" s="1" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>78</v>
+        <v>122</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>79</v>
+        <v>123</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>80</v>
+        <v>124</v>
       </c>
       <c r="D23" s="2">
         <v>0.625</v>
       </c>
       <c r="E23" t="s">
-        <v>81</v>
+        <v>125</v>
       </c>
       <c r="F23" s="3">
         <v>42924</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>194</v>
+        <v>126</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="L23" s="1"/>
-      <c r="M23" s="1"/>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
+        <v>127</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="K23" s="1" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="D24" s="2">
         <v>0.62986111111111109</v>
       </c>
       <c r="E24" t="s">
-        <v>81</v>
+        <v>125</v>
       </c>
       <c r="F24" s="3">
         <v>42924</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>196</v>
+        <v>128</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="L24" s="1"/>
-      <c r="M24" s="1"/>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
+        <v>129</v>
+      </c>
+      <c r="J24" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="K24" s="1" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="D25" s="2">
         <v>0.63402777777777775</v>
       </c>
       <c r="E25" t="s">
-        <v>81</v>
+        <v>125</v>
       </c>
       <c r="F25" s="3">
         <v>42924</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>82</v>
+        <v>130</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>198</v>
+        <v>131</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="L25" s="1"/>
-      <c r="M25" s="1"/>
-    </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
+        <v>132</v>
+      </c>
+      <c r="J25" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="K25" s="1" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="D26" s="2">
         <v>0.6381944444444444</v>
       </c>
       <c r="E26" t="s">
-        <v>83</v>
+        <v>133</v>
       </c>
       <c r="F26" s="3">
         <v>42924</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>200</v>
+        <v>134</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="L26" s="1"/>
-      <c r="M26" s="1"/>
-    </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
+        <v>135</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="K26" s="1" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="D27" s="2">
         <v>0.6430555555555556</v>
       </c>
       <c r="E27" t="s">
-        <v>84</v>
+        <v>136</v>
       </c>
       <c r="F27" s="3">
         <v>42924</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>202</v>
+        <v>137</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="L27" s="1"/>
-      <c r="M27" s="1"/>
-    </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
+        <v>138</v>
+      </c>
+      <c r="J27" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="K27" s="1" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="D28" s="2">
         <v>0.65416666666666667</v>
       </c>
       <c r="E28" t="s">
-        <v>84</v>
+        <v>136</v>
       </c>
       <c r="F28" s="3">
         <v>42924</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>85</v>
+        <v>139</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>204</v>
+        <v>140</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="L28" s="1"/>
-      <c r="M28" s="1"/>
-    </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
+        <v>141</v>
+      </c>
+      <c r="J28" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="K28" s="1" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="D29" s="2">
         <v>0.66041666666666665</v>
       </c>
       <c r="E29" t="s">
-        <v>86</v>
+        <v>142</v>
       </c>
       <c r="F29" s="3">
         <v>42924</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>87</v>
+        <v>143</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>206</v>
+        <v>144</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="L29" s="1"/>
-      <c r="M29" s="1"/>
-    </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
+        <v>145</v>
+      </c>
+      <c r="J29" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="K29" s="1" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>37</v>
+        <v>55</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>39</v>
+        <v>57</v>
       </c>
       <c r="D30" s="2">
         <v>0.66736111111111107</v>
       </c>
       <c r="E30" t="s">
-        <v>81</v>
+        <v>125</v>
       </c>
       <c r="F30" s="3">
         <v>42924</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>208</v>
+        <v>146</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="L30" s="1"/>
-      <c r="M30" s="1"/>
-    </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
+        <v>147</v>
+      </c>
+      <c r="J30" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="K30" s="1" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>41</v>
+        <v>61</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>42</v>
+        <v>62</v>
       </c>
       <c r="D31" s="2">
         <v>0.67361111111111116</v>
       </c>
       <c r="E31" t="s">
-        <v>88</v>
+        <v>148</v>
       </c>
       <c r="F31" s="3">
         <v>42924</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>210</v>
+        <v>149</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="L31" s="1"/>
-      <c r="M31" s="1"/>
-    </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
+        <v>150</v>
+      </c>
+      <c r="J31" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="K31" s="1" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>43</v>
+        <v>65</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>44</v>
+        <v>66</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>45</v>
+        <v>67</v>
       </c>
       <c r="D32" s="2">
         <v>0.68055555555555547</v>
       </c>
       <c r="E32" t="s">
-        <v>89</v>
+        <v>151</v>
       </c>
       <c r="F32" s="3">
         <v>42924</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>63</v>
+        <v>95</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>212</v>
+        <v>152</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="L32" s="1"/>
-      <c r="M32" s="1"/>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
+        <v>153</v>
+      </c>
+      <c r="J32" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="K32" s="1" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>46</v>
+        <v>70</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>47</v>
+        <v>71</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>48</v>
+        <v>72</v>
       </c>
       <c r="D33" s="2">
         <v>0.68611111111111101</v>
       </c>
       <c r="E33" t="s">
-        <v>81</v>
+        <v>125</v>
       </c>
       <c r="F33" s="3">
         <v>42924</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>90</v>
+        <v>154</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>214</v>
+        <v>155</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="L33" s="1"/>
-      <c r="M33" s="1"/>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
+        <v>156</v>
+      </c>
+      <c r="J33" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="K33" s="1" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>70</v>
+        <v>108</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>71</v>
+        <v>109</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>72</v>
+        <v>110</v>
       </c>
       <c r="D34" s="2">
         <v>0.69236111111111109</v>
       </c>
       <c r="E34" t="s">
-        <v>76</v>
+        <v>118</v>
       </c>
       <c r="F34" s="3">
         <v>42924</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>63</v>
+        <v>95</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>216</v>
+        <v>157</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="L34" s="1"/>
-      <c r="M34" s="1"/>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
+        <v>158</v>
+      </c>
+      <c r="J34" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="K34" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>53</v>
+        <v>81</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>54</v>
+        <v>82</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>55</v>
+        <v>83</v>
       </c>
       <c r="D35" s="2">
         <v>0.70347222222222217</v>
       </c>
       <c r="E35" t="s">
-        <v>91</v>
+        <v>159</v>
       </c>
       <c r="F35" s="3">
         <v>42924</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>218</v>
+        <v>160</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="L35" s="1"/>
-      <c r="M35" s="1"/>
-    </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
+        <v>161</v>
+      </c>
+      <c r="J35" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="K35" s="1" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>49</v>
+        <v>75</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>50</v>
+        <v>76</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>51</v>
+        <v>77</v>
       </c>
       <c r="D36" s="2">
         <v>0.71597222222222223</v>
@@ -2298,26 +2895,30 @@
         <v>42924</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>56</v>
+        <v>84</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>220</v>
+        <v>162</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="L36" s="1"/>
-      <c r="M36" s="1"/>
-    </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
+        <v>163</v>
+      </c>
+      <c r="J36" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="K36" s="1" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>67</v>
+        <v>103</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>68</v>
+        <v>104</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>69</v>
+        <v>105</v>
       </c>
       <c r="D37" s="2">
         <v>0.72777777777777775</v>
@@ -2326,26 +2927,30 @@
         <v>42924</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>63</v>
+        <v>95</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>222</v>
+        <v>164</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="L37" s="1"/>
-      <c r="M37" s="1"/>
-    </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
+        <v>165</v>
+      </c>
+      <c r="J37" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="K37" s="1" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>57</v>
+        <v>87</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>58</v>
+        <v>88</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>59</v>
+        <v>89</v>
       </c>
       <c r="D38" s="2">
         <v>0.73611111111111116</v>
@@ -2354,26 +2959,30 @@
         <v>42924</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>63</v>
+        <v>95</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>224</v>
+        <v>166</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="L38" s="1"/>
-      <c r="M38" s="1"/>
-    </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
+        <v>167</v>
+      </c>
+      <c r="J38" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="K38" s="1" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>60</v>
+        <v>92</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>61</v>
+        <v>93</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>62</v>
+        <v>94</v>
       </c>
       <c r="D39" s="2">
         <v>0.7402777777777777</v>
@@ -2382,26 +2991,30 @@
         <v>42924</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>56</v>
+        <v>84</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>226</v>
+        <v>168</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="L39" s="1"/>
-      <c r="M39" s="1"/>
-    </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
+        <v>169</v>
+      </c>
+      <c r="J39" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="K39" s="1" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>64</v>
+        <v>98</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>65</v>
+        <v>99</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>66</v>
+        <v>100</v>
       </c>
       <c r="D40" s="2">
         <v>0.74791666666666667</v>
@@ -2410,26 +3023,30 @@
         <v>42924</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>92</v>
+        <v>170</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>228</v>
+        <v>171</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="L40" s="1"/>
-      <c r="M40" s="1"/>
-    </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
+        <v>172</v>
+      </c>
+      <c r="J40" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="K40" s="1" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D41" s="4">
         <v>0.625</v>
@@ -2438,23 +3055,27 @@
         <v>42882</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>112</v>
+        <v>173</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="K41" s="1"/>
-      <c r="M41" s="1"/>
-    </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
+        <v>174</v>
+      </c>
+      <c r="J41" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="K41" s="1" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D42" s="4">
         <v>0.62847222222222221</v>
@@ -2463,22 +3084,27 @@
         <v>42882</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>114</v>
+        <v>175</v>
       </c>
       <c r="I42" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="K42" s="1"/>
-    </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
+        <v>176</v>
+      </c>
+      <c r="J42" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="K42" s="1" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>78</v>
+        <v>122</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>79</v>
+        <v>123</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>80</v>
+        <v>124</v>
       </c>
       <c r="D43" s="4">
         <v>0.63541666666666663</v>
@@ -2490,25 +3116,30 @@
         <v>42882</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>116</v>
+        <v>177</v>
       </c>
       <c r="I43" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="K43" s="1"/>
-    </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
+        <v>178</v>
+      </c>
+      <c r="J43" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="K43" s="1" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="D44" s="4">
-        <v>0.6430555555555556</v>
+        <v>0.65486111111111112</v>
       </c>
       <c r="E44">
         <v>75</v>
@@ -2517,22 +3148,27 @@
         <v>42882</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>118</v>
+        <v>179</v>
       </c>
       <c r="I44" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="K44" s="1"/>
-    </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
+        <v>180</v>
+      </c>
+      <c r="J44" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="K44" s="1" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="D45" s="4">
         <v>0.64861111111111114</v>
@@ -2544,25 +3180,30 @@
         <v>42882</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>120</v>
+        <v>181</v>
       </c>
       <c r="I45" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="K45" s="1"/>
-    </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.2">
+        <v>182</v>
+      </c>
+      <c r="J45" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="K45" s="1" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
+        <v>21</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C46" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B46" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>25</v>
-      </c>
       <c r="D46" s="4">
-        <v>0.65486111111111112</v>
+        <v>0.6430555555555556</v>
       </c>
       <c r="E46">
         <v>75</v>
@@ -2571,22 +3212,27 @@
         <v>42882</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>122</v>
+        <v>183</v>
       </c>
       <c r="I46" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="K46" s="1"/>
-    </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.2">
+        <v>184</v>
+      </c>
+      <c r="J46" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="K46" s="1" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="D47" s="4">
         <v>0.66111111111111109</v>
@@ -2598,22 +3244,27 @@
         <v>42882</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>124</v>
+        <v>185</v>
       </c>
       <c r="I47" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="K47" s="1"/>
-    </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.2">
+        <v>186</v>
+      </c>
+      <c r="J47" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="K47" s="1" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="D48" s="4">
         <v>0.66527777777777775</v>
@@ -2625,22 +3276,27 @@
         <v>42882</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>126</v>
+        <v>187</v>
       </c>
       <c r="I48" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="K48" s="1"/>
+        <v>188</v>
+      </c>
+      <c r="J48" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="K48" s="1" t="s">
+        <v>361</v>
+      </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="D49" s="4">
         <v>0.67013888888888884</v>
@@ -2652,22 +3308,27 @@
         <v>42882</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>128</v>
+        <v>189</v>
       </c>
       <c r="I49" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="K49" s="1"/>
+        <v>190</v>
+      </c>
+      <c r="J49" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="K49" s="1" t="s">
+        <v>363</v>
+      </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>46</v>
+        <v>70</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>47</v>
+        <v>71</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>48</v>
+        <v>72</v>
       </c>
       <c r="D50" s="4">
         <v>0.67708333333333337</v>
@@ -2679,22 +3340,27 @@
         <v>42882</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>130</v>
+        <v>191</v>
       </c>
       <c r="I50" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="K50" s="1"/>
+        <v>192</v>
+      </c>
+      <c r="J50" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="K50" s="1" t="s">
+        <v>365</v>
+      </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>43</v>
+        <v>65</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>44</v>
+        <v>66</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>45</v>
+        <v>67</v>
       </c>
       <c r="D51" s="4">
         <v>0.68472222222222223</v>
@@ -2706,22 +3372,27 @@
         <v>42882</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>132</v>
+        <v>193</v>
       </c>
       <c r="I51" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="K51" s="1"/>
+        <v>194</v>
+      </c>
+      <c r="J51" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="K51" s="1" t="s">
+        <v>367</v>
+      </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>41</v>
+        <v>61</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>42</v>
+        <v>62</v>
       </c>
       <c r="D52" s="4">
         <v>0.69097222222222221</v>
@@ -2733,22 +3404,27 @@
         <v>42882</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>134</v>
+        <v>195</v>
       </c>
       <c r="I52" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="K52" s="1"/>
+        <v>196</v>
+      </c>
+      <c r="J52" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="K52" s="1" t="s">
+        <v>369</v>
+      </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>37</v>
+        <v>55</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>39</v>
+        <v>57</v>
       </c>
       <c r="D53" s="4">
         <v>0.6972222222222223</v>
@@ -2760,22 +3436,27 @@
         <v>42882</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>136</v>
+        <v>197</v>
       </c>
       <c r="I53" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="K53" s="1"/>
+        <v>198</v>
+      </c>
+      <c r="J53" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="K53" s="1" t="s">
+        <v>371</v>
+      </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>70</v>
+        <v>108</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>71</v>
+        <v>109</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>72</v>
+        <v>110</v>
       </c>
       <c r="D54" s="4">
         <v>0.70416666666666661</v>
@@ -2787,22 +3468,27 @@
         <v>42882</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>138</v>
+        <v>199</v>
       </c>
       <c r="I54" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="K54" s="1"/>
+        <v>200</v>
+      </c>
+      <c r="J54" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="K54" s="1" t="s">
+        <v>373</v>
+      </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>53</v>
+        <v>81</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>54</v>
+        <v>82</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>55</v>
+        <v>83</v>
       </c>
       <c r="D55" s="4">
         <v>0.70972222222222225</v>
@@ -2814,22 +3500,27 @@
         <v>42882</v>
       </c>
       <c r="H55" s="1" t="s">
-        <v>140</v>
+        <v>201</v>
       </c>
       <c r="I55" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="K55" s="1"/>
+        <v>202</v>
+      </c>
+      <c r="J55" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="K55" s="1" t="s">
+        <v>375</v>
+      </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>49</v>
+        <v>75</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>50</v>
+        <v>76</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>51</v>
+        <v>77</v>
       </c>
       <c r="D56" s="4">
         <v>0.71805555555555556</v>
@@ -2841,22 +3532,27 @@
         <v>42882</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>142</v>
+        <v>203</v>
       </c>
       <c r="I56" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="K56" s="1"/>
+        <v>204</v>
+      </c>
+      <c r="J56" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="K56" s="1" t="s">
+        <v>377</v>
+      </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>67</v>
+        <v>103</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>68</v>
+        <v>104</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>69</v>
+        <v>105</v>
       </c>
       <c r="D57" s="4">
         <v>0.72638888888888886</v>
@@ -2868,22 +3564,27 @@
         <v>42882</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>144</v>
+        <v>205</v>
       </c>
       <c r="I57" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="K57" s="1"/>
+        <v>206</v>
+      </c>
+      <c r="J57" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="K57" s="1" t="s">
+        <v>379</v>
+      </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>57</v>
+        <v>87</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>58</v>
+        <v>88</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>59</v>
+        <v>89</v>
       </c>
       <c r="D58" s="4">
         <v>0.73333333333333339</v>
@@ -2895,486 +3596,584 @@
         <v>42882</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>146</v>
+        <v>207</v>
       </c>
       <c r="I58" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="K58" s="1"/>
+        <v>208</v>
+      </c>
+      <c r="J58" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="K58" s="1" t="s">
+        <v>381</v>
+      </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>60</v>
+        <v>92</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>61</v>
+        <v>93</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>62</v>
+        <v>94</v>
       </c>
       <c r="D59" s="4">
         <v>0.74375000000000002</v>
       </c>
       <c r="E59" t="s">
-        <v>93</v>
+        <v>209</v>
       </c>
       <c r="F59" s="3">
         <v>42882</v>
       </c>
       <c r="H59" s="1" t="s">
-        <v>148</v>
+        <v>210</v>
       </c>
       <c r="I59" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="K59" s="1"/>
+        <v>211</v>
+      </c>
+      <c r="J59" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="K59" s="1" t="s">
+        <v>383</v>
+      </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>64</v>
+        <v>98</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>65</v>
+        <v>99</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>66</v>
+        <v>100</v>
       </c>
       <c r="D60" s="4">
         <v>0.73888888888888893</v>
       </c>
       <c r="E60" t="s">
-        <v>93</v>
+        <v>209</v>
       </c>
       <c r="F60" s="3">
         <v>42882</v>
       </c>
       <c r="H60" s="1" t="s">
-        <v>150</v>
+        <v>212</v>
       </c>
       <c r="I60" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="K60" s="1"/>
+        <v>213</v>
+      </c>
+      <c r="J60" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="K60" s="1" t="s">
+        <v>385</v>
+      </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D61" s="2">
         <v>0.59375</v>
       </c>
       <c r="E61" t="s">
-        <v>94</v>
+        <v>214</v>
       </c>
       <c r="F61" s="3">
         <v>42760</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>95</v>
+        <v>215</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>230</v>
+        <v>216</v>
       </c>
       <c r="I61" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="K61" s="1"/>
+        <v>217</v>
+      </c>
+      <c r="J61" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="K61" s="1" t="s">
+        <v>387</v>
+      </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="D62" s="2">
-        <v>0.60416666666666663</v>
+        <v>0.61597222222222225</v>
       </c>
       <c r="E62" t="s">
-        <v>96</v>
+        <v>218</v>
       </c>
       <c r="F62" s="3">
         <v>42760</v>
       </c>
+      <c r="G62" s="1" t="s">
+        <v>219</v>
+      </c>
       <c r="H62" s="1" t="s">
-        <v>232</v>
+        <v>220</v>
       </c>
       <c r="I62" s="1" t="s">
-        <v>233</v>
+        <v>221</v>
+      </c>
+      <c r="J62" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="K62" s="1" t="s">
+        <v>389</v>
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="D63" s="2">
         <v>0.60902777777777783</v>
       </c>
       <c r="E63" t="s">
-        <v>96</v>
+        <v>222</v>
       </c>
       <c r="F63" s="3">
         <v>42760</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>97</v>
+        <v>223</v>
       </c>
       <c r="H63" s="1" t="s">
-        <v>234</v>
+        <v>224</v>
       </c>
       <c r="I63" s="1" t="s">
-        <v>235</v>
+        <v>225</v>
+      </c>
+      <c r="J63" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="K63" s="1" t="s">
+        <v>391</v>
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
+        <v>21</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C64" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B64" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C64" s="1" t="s">
-        <v>25</v>
-      </c>
       <c r="D64" s="2">
-        <v>0.61597222222222225</v>
+        <v>0.60416666666666663</v>
       </c>
       <c r="E64" t="s">
-        <v>98</v>
+        <v>222</v>
       </c>
       <c r="F64" s="3">
         <v>42760</v>
       </c>
-      <c r="G64" s="1" t="s">
-        <v>99</v>
-      </c>
       <c r="H64" s="1" t="s">
-        <v>236</v>
+        <v>226</v>
       </c>
       <c r="I64" s="1" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
+        <v>227</v>
+      </c>
+      <c r="J64" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="K64" s="1" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="D65" s="2">
         <v>0.62013888888888891</v>
       </c>
       <c r="E65" t="s">
-        <v>100</v>
+        <v>228</v>
       </c>
       <c r="F65" s="3">
         <v>42760</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="H65" s="1" t="s">
-        <v>238</v>
+        <v>229</v>
       </c>
       <c r="I65" s="1" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
+        <v>230</v>
+      </c>
+      <c r="J65" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="K65" s="1" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="D66" s="2">
         <v>0.62430555555555556</v>
       </c>
       <c r="E66" t="s">
-        <v>98</v>
+        <v>218</v>
       </c>
       <c r="F66" s="3">
         <v>42760</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>101</v>
+        <v>231</v>
       </c>
       <c r="H66" s="1" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="I66" s="1" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
+        <v>233</v>
+      </c>
+      <c r="J66" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="K66" s="1" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="D67" s="2">
         <v>0.62986111111111109</v>
       </c>
       <c r="E67" t="s">
-        <v>98</v>
+        <v>218</v>
       </c>
       <c r="F67" s="3">
         <v>42760</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>102</v>
+        <v>234</v>
       </c>
       <c r="H67" s="1" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="I67" s="1" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
+        <v>236</v>
+      </c>
+      <c r="J67" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="K67" s="1" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>37</v>
+        <v>55</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>39</v>
+        <v>57</v>
       </c>
       <c r="D68" s="2">
         <v>0.65833333333333333</v>
       </c>
       <c r="E68" t="s">
-        <v>100</v>
+        <v>228</v>
       </c>
       <c r="F68" s="3">
         <v>42760</v>
       </c>
       <c r="H68" s="1" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="I68" s="1" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
+        <v>238</v>
+      </c>
+      <c r="J68" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="K68" s="1" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>41</v>
+        <v>61</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>42</v>
+        <v>62</v>
       </c>
       <c r="D69" s="2">
         <v>0.66388888888888886</v>
       </c>
       <c r="E69" t="s">
-        <v>100</v>
+        <v>228</v>
       </c>
       <c r="F69" s="3">
         <v>42760</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>103</v>
+        <v>239</v>
       </c>
       <c r="H69" s="1" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="I69" s="1" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
+        <v>241</v>
+      </c>
+      <c r="J69" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="K69" s="1" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>43</v>
+        <v>65</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>44</v>
+        <v>66</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>45</v>
+        <v>67</v>
       </c>
       <c r="D70" s="2">
         <v>0.67222222222222217</v>
       </c>
       <c r="E70" t="s">
-        <v>104</v>
+        <v>242</v>
       </c>
       <c r="F70" s="3">
         <v>42760</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="H70" s="1" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="I70" s="1" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
+        <v>244</v>
+      </c>
+      <c r="J70" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="K70" s="1" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>70</v>
+        <v>108</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>71</v>
+        <v>109</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>72</v>
+        <v>110</v>
       </c>
       <c r="D71" s="2">
         <v>0.7090277777777777</v>
       </c>
       <c r="E71" t="s">
-        <v>105</v>
+        <v>245</v>
       </c>
       <c r="F71" s="3">
         <v>42760</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="H71" s="1" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="I71" s="1" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.2">
+        <v>247</v>
+      </c>
+      <c r="J71" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="K71" s="1" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>53</v>
+        <v>81</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>54</v>
+        <v>82</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>55</v>
+        <v>83</v>
       </c>
       <c r="D72" s="2">
         <v>0.71250000000000002</v>
       </c>
       <c r="E72" t="s">
-        <v>107</v>
+        <v>248</v>
       </c>
       <c r="F72" s="3">
         <v>42760</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>106</v>
+        <v>249</v>
       </c>
       <c r="H72" s="1" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="I72" s="1" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.2">
+        <v>251</v>
+      </c>
+      <c r="J72" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="K72" s="1" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>49</v>
+        <v>75</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>50</v>
+        <v>76</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>51</v>
+        <v>77</v>
       </c>
       <c r="D73" s="2">
         <v>0.71944444444444444</v>
       </c>
       <c r="E73" t="s">
-        <v>100</v>
+        <v>228</v>
       </c>
       <c r="F73" s="3">
         <v>42760</v>
       </c>
       <c r="H73" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="I73" s="1" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.2">
+        <v>253</v>
+      </c>
+      <c r="J73" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="K73" s="1" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>67</v>
+        <v>103</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>68</v>
+        <v>104</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>69</v>
+        <v>105</v>
       </c>
       <c r="D74" s="2">
         <v>0.72569444444444453</v>
       </c>
       <c r="E74" t="s">
-        <v>105</v>
+        <v>245</v>
       </c>
       <c r="F74" s="3">
         <v>42760</v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>108</v>
+        <v>254</v>
       </c>
       <c r="H74" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="I74" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="I74" s="1" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J74" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="K74" s="1" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>57</v>
+        <v>87</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>58</v>
+        <v>88</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>59</v>
+        <v>89</v>
       </c>
       <c r="D75" s="2">
         <v>0.73263888888888884</v>
       </c>
       <c r="E75" t="s">
-        <v>100</v>
+        <v>228</v>
       </c>
       <c r="F75" s="3">
         <v>42760</v>
       </c>
       <c r="G75" s="1" t="s">
-        <v>109</v>
+        <v>257</v>
       </c>
       <c r="H75" s="1" t="s">
         <v>258</v>
@@ -3382,28 +4181,34 @@
       <c r="I75" s="1" t="s">
         <v>259</v>
       </c>
-    </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J75" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="K75" s="1" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>60</v>
+        <v>92</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>61</v>
+        <v>93</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>62</v>
+        <v>94</v>
       </c>
       <c r="D76" s="2">
         <v>0.73749999999999993</v>
       </c>
       <c r="E76" t="s">
-        <v>105</v>
+        <v>245</v>
       </c>
       <c r="F76" s="3">
         <v>42760</v>
       </c>
       <c r="G76" s="1" t="s">
-        <v>99</v>
+        <v>219</v>
       </c>
       <c r="H76" s="1" t="s">
         <v>260</v>
@@ -3411,28 +4216,34 @@
       <c r="I76" s="1" t="s">
         <v>261</v>
       </c>
-    </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J76" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="K76" s="1" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>64</v>
+        <v>98</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>65</v>
+        <v>99</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>66</v>
+        <v>100</v>
       </c>
       <c r="D77" s="2">
         <v>0.7402777777777777</v>
       </c>
       <c r="E77" t="s">
-        <v>100</v>
+        <v>228</v>
       </c>
       <c r="F77" s="3">
         <v>42760</v>
       </c>
       <c r="G77" s="1" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="H77" s="1" t="s">
         <v>262</v>
@@ -3440,11 +4251,545 @@
       <c r="I77" s="1" t="s">
         <v>263</v>
       </c>
+      <c r="J77" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="K77" s="1" t="s">
+        <v>419</v>
+      </c>
     </row>
   </sheetData>
-  <sortState ref="L21:N40">
-    <sortCondition ref="N21:N40"/>
-  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D18" sqref="B2:D18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="3.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B1" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="D1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="D2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="D3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="D4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="D5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="D6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="D7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="D8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="D9" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="D10" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="D11" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="D12" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="D13" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="D14" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>13</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="D15" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>14</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="D16" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>15</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="D17" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>16</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="D18" t="s">
+        <v>98</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K40"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:D22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="3.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="3.1640625" customWidth="1"/>
+    <col min="6" max="7" width="7.6640625" customWidth="1"/>
+    <col min="8" max="8" width="4.5" customWidth="1"/>
+    <col min="9" max="9" width="3.1640625" customWidth="1"/>
+    <col min="10" max="11" width="7.6640625" customWidth="1"/>
+    <col min="12" max="12" width="4.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B1" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="D1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>13</v>
+      </c>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>14</v>
+      </c>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>15</v>
+      </c>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>16</v>
+      </c>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>17</v>
+      </c>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>18</v>
+      </c>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>19</v>
+      </c>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>20</v>
+      </c>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F32" s="1"/>
+      <c r="G32" s="1"/>
+    </row>
+    <row r="33" spans="6:11" x14ac:dyDescent="0.2">
+      <c r="F33" s="1"/>
+      <c r="G33" s="1"/>
+    </row>
+    <row r="34" spans="6:11" x14ac:dyDescent="0.2">
+      <c r="F34" s="1"/>
+      <c r="G34" s="1"/>
+    </row>
+    <row r="35" spans="6:11" x14ac:dyDescent="0.2">
+      <c r="F35" s="1"/>
+      <c r="G35" s="1"/>
+    </row>
+    <row r="36" spans="6:11" x14ac:dyDescent="0.2">
+      <c r="F36" s="1"/>
+      <c r="G36" s="1"/>
+    </row>
+    <row r="37" spans="6:11" x14ac:dyDescent="0.2">
+      <c r="F37" s="1"/>
+      <c r="G37" s="1"/>
+    </row>
+    <row r="38" spans="6:11" x14ac:dyDescent="0.2">
+      <c r="F38" s="1"/>
+      <c r="G38" s="1"/>
+    </row>
+    <row r="39" spans="6:11" x14ac:dyDescent="0.2">
+      <c r="F39" s="1"/>
+      <c r="G39" s="1"/>
+    </row>
+    <row r="40" spans="6:11" x14ac:dyDescent="0.2">
+      <c r="J40" s="1"/>
+      <c r="K40" s="1"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>